--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_20_18.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_20_18.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>278489.3160512774</v>
+        <v>276050.8429515306</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673433</v>
+        <v>603248.4937673432</v>
       </c>
     </row>
     <row r="9">
@@ -656,13 +656,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>275.4939141315299</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -671,10 +671,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>81.89757982582606</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>41.57692977292595</v>
@@ -707,10 +707,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>182.6018135008738</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -722,7 +722,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -829,13 +829,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>85.78789945459273</v>
       </c>
       <c r="H4" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -874,7 +874,7 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>182.1403198644309</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -896,25 +896,25 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>10.92172565345345</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -947,13 +947,13 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>101.3230871672193</v>
+        <v>294.021248923036</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1054,13 +1054,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>146.3037133741913</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>63.76080479645152</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -1072,7 +1072,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1108,7 +1108,7 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -1117,10 +1117,10 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1130,19 +1130,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>68.35584245823117</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>394.1100830796579</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
         <v>410.9217256534534</v>
@@ -1181,16 +1181,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -1199,7 +1199,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1300,16 +1300,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>74.20284025433789</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1345,19 +1345,19 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>100.48599999057</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1367,13 +1367,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634794</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.6830416206834</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>179.8319801819412</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856421</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,10 +1573,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
@@ -1588,13 +1588,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>1.594095449516026</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>133.8107367464709</v>
       </c>
     </row>
     <row r="14">
@@ -1610,10 +1610,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.6830416206824</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722614</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465709</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>57.02356321677961</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>41.74133133758713</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1844,7 +1844,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
@@ -1999,10 +1999,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>69.82863813027228</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -2014,10 +2014,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>41.74133133758713</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2050,7 +2050,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2090,13 +2090,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
         <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2239,16 +2239,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>81.07546534818415</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
@@ -2257,7 +2257,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2293,7 +2293,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>242.4603833710101</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2302,7 +2302,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2476,16 +2476,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>28.75188085812005</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>65.78783178799263</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2536,7 +2536,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -2570,7 +2570,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2716,19 +2716,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2770,10 +2770,10 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>194.9085394018839</v>
       </c>
       <c r="W28" t="n">
-        <v>94.64226186542889</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2789,7 +2789,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -2950,25 +2950,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>110.0177171766856</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>156.0551722706133</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,13 +2995,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
@@ -3187,19 +3187,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
@@ -3235,7 +3235,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>138.7157037776614</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
@@ -3244,16 +3244,16 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
-        <v>207.6191668645424</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3269,7 +3269,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>354.6830416206824</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
@@ -3427,19 +3427,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>86.24032515900413</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3469,13 +3469,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>155.0500112286387</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
@@ -3487,7 +3487,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -3664,13 +3664,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>111.3213230702132</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
@@ -3679,7 +3679,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3709,10 +3709,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>123.7971820797026</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>286.1844743892441</v>
@@ -3901,7 +3901,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -3910,7 +3910,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>108.2950343703266</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>140.2947128462239</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>26.05480806223599</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -4138,7 +4138,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>9.146142788179368</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -4180,13 +4180,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>160.1763464053459</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
         <v>286.1844743892441</v>
@@ -4304,22 +4304,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1285.591601078694</v>
+        <v>1678.62132134232</v>
       </c>
       <c r="C2" t="n">
-        <v>1285.591601078694</v>
+        <v>1678.62132134232</v>
       </c>
       <c r="D2" t="n">
-        <v>1285.591601078694</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E2" t="n">
-        <v>899.80334848045</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F2" t="n">
-        <v>488.8174436908425</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G2" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H2" t="n">
         <v>108.5090151927147</v>
@@ -4337,7 +4337,7 @@
         <v>1040.244834329464</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N2" t="n">
         <v>2120.555556060171</v>
@@ -4355,25 +4355,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S2" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T2" t="n">
-        <v>3119.628073993393</v>
+        <v>3030.868876872757</v>
       </c>
       <c r="U2" t="n">
-        <v>3119.628073993393</v>
+        <v>3030.868876872757</v>
       </c>
       <c r="V2" t="n">
-        <v>2788.565186649822</v>
+        <v>2699.805989529186</v>
       </c>
       <c r="W2" t="n">
-        <v>2435.796531379708</v>
+        <v>2347.037334259071</v>
       </c>
       <c r="X2" t="n">
-        <v>2062.330773118628</v>
+        <v>2347.037334259071</v>
       </c>
       <c r="Y2" t="n">
-        <v>1672.191441142816</v>
+        <v>1956.89800228326</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1702.096133556938</v>
+        <v>941.5438544811095</v>
       </c>
       <c r="C3" t="n">
-        <v>1527.643104275811</v>
+        <v>767.0908251999825</v>
       </c>
       <c r="D3" t="n">
-        <v>1378.70869461456</v>
+        <v>618.1564155387314</v>
       </c>
       <c r="E3" t="n">
-        <v>1219.471239609104</v>
+        <v>458.9189605332758</v>
       </c>
       <c r="F3" t="n">
-        <v>1072.936681635989</v>
+        <v>312.3844025601609</v>
       </c>
       <c r="G3" t="n">
-        <v>936.5735814686077</v>
+        <v>176.0213023927789</v>
       </c>
       <c r="H3" t="n">
-        <v>846.0716871064752</v>
+        <v>85.51940803064583</v>
       </c>
       <c r="I3" t="n">
-        <v>827.0643955080131</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J3" t="n">
-        <v>920.7416649986303</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K3" t="n">
-        <v>1159.005863978977</v>
+        <v>398.4535849031484</v>
       </c>
       <c r="L3" t="n">
-        <v>1525.704024291643</v>
+        <v>765.1517452158141</v>
       </c>
       <c r="M3" t="n">
-        <v>1972.980349513959</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N3" t="n">
-        <v>2446.503393068413</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O3" t="n">
-        <v>2857.464672486468</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P3" t="n">
-        <v>3167.964263962571</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q3" t="n">
-        <v>3325.605821609171</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R3" t="n">
-        <v>3325.461468201686</v>
+        <v>2564.909189125858</v>
       </c>
       <c r="S3" t="n">
-        <v>3196.023581695166</v>
+        <v>2435.471302619338</v>
       </c>
       <c r="T3" t="n">
-        <v>3003.380581373021</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U3" t="n">
-        <v>2775.312734507437</v>
+        <v>2014.760455431609</v>
       </c>
       <c r="V3" t="n">
-        <v>2540.160626275695</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W3" t="n">
-        <v>2285.923269547493</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X3" t="n">
-        <v>2078.07176934196</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y3" t="n">
-        <v>1870.311470577006</v>
+        <v>1109.759191501178</v>
       </c>
     </row>
     <row r="4">
@@ -4462,25 +4462,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>212.7293032143256</v>
+        <v>396.7094242895083</v>
       </c>
       <c r="C4" t="n">
-        <v>212.7293032143256</v>
+        <v>396.7094242895083</v>
       </c>
       <c r="D4" t="n">
-        <v>212.7293032143256</v>
+        <v>396.7094242895083</v>
       </c>
       <c r="E4" t="n">
-        <v>212.7293032143256</v>
+        <v>396.7094242895083</v>
       </c>
       <c r="F4" t="n">
-        <v>212.7293032143256</v>
+        <v>396.7094242895083</v>
       </c>
       <c r="G4" t="n">
-        <v>212.7293032143256</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H4" t="n">
-        <v>66.51211643218342</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I4" t="n">
         <v>66.51211643218342</v>
@@ -4522,16 +4522,16 @@
         <v>1134.908724368016</v>
       </c>
       <c r="V4" t="n">
-        <v>950.9286032928337</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="W4" t="n">
-        <v>661.511433255873</v>
+        <v>845.4915543310558</v>
       </c>
       <c r="X4" t="n">
-        <v>433.5218823578557</v>
+        <v>617.5020034330385</v>
       </c>
       <c r="Y4" t="n">
-        <v>212.7293032143256</v>
+        <v>396.7094242895083</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1537.086630593157</v>
+        <v>1548.419770374778</v>
       </c>
       <c r="C5" t="n">
-        <v>1168.124113652745</v>
+        <v>1548.419770374778</v>
       </c>
       <c r="D5" t="n">
-        <v>809.8584150459947</v>
+        <v>1190.154071768027</v>
       </c>
       <c r="E5" t="n">
-        <v>424.0701624477504</v>
+        <v>1190.154071768027</v>
       </c>
       <c r="F5" t="n">
-        <v>417.1246616985469</v>
+        <v>779.1681669784198</v>
       </c>
       <c r="G5" t="n">
-        <v>406.0926155839475</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H5" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I5" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L5" t="n">
         <v>1040.244834329465</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520487</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U5" t="n">
-        <v>2755.806928794324</v>
+        <v>2961.784676410103</v>
       </c>
       <c r="V5" t="n">
-        <v>2653.460376100163</v>
+        <v>2664.793515881784</v>
       </c>
       <c r="W5" t="n">
-        <v>2300.691720830048</v>
+        <v>2312.024860611669</v>
       </c>
       <c r="X5" t="n">
-        <v>1927.225962568968</v>
+        <v>1938.559102350589</v>
       </c>
       <c r="Y5" t="n">
-        <v>1537.086630593157</v>
+        <v>1548.419770374778</v>
       </c>
     </row>
     <row r="6">
@@ -4620,70 +4620,70 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811091</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999821</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387309</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332754</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601604</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I6" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U6" t="n">
         <v>2014.760455431608</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X6" t="n">
         <v>1317.519490266131</v>
@@ -4699,28 +4699,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>920.3423867623641</v>
+        <v>760.6631235951729</v>
       </c>
       <c r="C7" t="n">
-        <v>772.5608581015648</v>
+        <v>591.726940667266</v>
       </c>
       <c r="D7" t="n">
-        <v>772.5608581015648</v>
+        <v>591.726940667266</v>
       </c>
       <c r="E7" t="n">
-        <v>624.6477645191717</v>
+        <v>527.322087337517</v>
       </c>
       <c r="F7" t="n">
-        <v>477.7578170212613</v>
+        <v>380.4321398396067</v>
       </c>
       <c r="G7" t="n">
-        <v>310.0549803959802</v>
+        <v>212.7293032143257</v>
       </c>
       <c r="H7" t="n">
-        <v>163.837793613838</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I7" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J7" t="n">
         <v>111.634748879119</v>
@@ -4756,19 +4756,19 @@
         <v>1645.778206672847</v>
       </c>
       <c r="U7" t="n">
-        <v>1356.675339798491</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="V7" t="n">
-        <v>1101.990851592604</v>
+        <v>1391.09371846696</v>
       </c>
       <c r="W7" t="n">
-        <v>1101.990851592604</v>
+        <v>1391.09371846696</v>
       </c>
       <c r="X7" t="n">
-        <v>1101.990851592604</v>
+        <v>1163.104167568943</v>
       </c>
       <c r="Y7" t="n">
-        <v>1101.990851592604</v>
+        <v>942.3115884254127</v>
       </c>
     </row>
     <row r="8">
@@ -4778,16 +4778,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1904.487375535337</v>
+        <v>1934.208022973022</v>
       </c>
       <c r="C8" t="n">
-        <v>1535.524858594926</v>
+        <v>1934.208022973022</v>
       </c>
       <c r="D8" t="n">
-        <v>1177.259159988175</v>
+        <v>1575.942324366272</v>
       </c>
       <c r="E8" t="n">
-        <v>1177.259159988175</v>
+        <v>1190.154071768027</v>
       </c>
       <c r="F8" t="n">
         <v>779.1681669784198</v>
@@ -4802,16 +4802,16 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L8" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
         <v>2120.555556060171</v>
@@ -4829,25 +4829,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T8" t="n">
-        <v>3215.315153136266</v>
+        <v>3119.628073993393</v>
       </c>
       <c r="U8" t="n">
-        <v>2961.784676410102</v>
+        <v>3119.628073993393</v>
       </c>
       <c r="V8" t="n">
-        <v>2630.721789066532</v>
+        <v>3119.628073993393</v>
       </c>
       <c r="W8" t="n">
-        <v>2277.953133796417</v>
+        <v>2766.859418723278</v>
       </c>
       <c r="X8" t="n">
-        <v>1904.487375535337</v>
+        <v>2393.393660462199</v>
       </c>
       <c r="Y8" t="n">
-        <v>1904.487375535337</v>
+        <v>2003.254328486387</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811095</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999825</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387314</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332758</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601609</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927789</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064583</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J9" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031484</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158141</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M9" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125858</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619338</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431609</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501178</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="10">
@@ -4936,25 +4936,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>680.3679798527295</v>
+        <v>754.647583030232</v>
       </c>
       <c r="C10" t="n">
-        <v>511.4317969248226</v>
+        <v>585.7114001023251</v>
       </c>
       <c r="D10" t="n">
-        <v>361.3151575124869</v>
+        <v>435.5947606899894</v>
       </c>
       <c r="E10" t="n">
-        <v>213.4020639300938</v>
+        <v>287.6816671075962</v>
       </c>
       <c r="F10" t="n">
-        <v>66.51211643218342</v>
+        <v>287.6816671075962</v>
       </c>
       <c r="G10" t="n">
-        <v>66.51211643218342</v>
+        <v>287.6816671075962</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218342</v>
+        <v>141.464480325454</v>
       </c>
       <c r="I10" t="n">
         <v>66.51211643218342</v>
@@ -4993,19 +4993,19 @@
         <v>1735.608663915319</v>
       </c>
       <c r="U10" t="n">
-        <v>1634.107653823834</v>
+        <v>1446.505797040963</v>
       </c>
       <c r="V10" t="n">
-        <v>1379.423165617947</v>
+        <v>1446.505797040963</v>
       </c>
       <c r="W10" t="n">
-        <v>1090.005995580987</v>
+        <v>1157.088627004002</v>
       </c>
       <c r="X10" t="n">
-        <v>862.0164446829692</v>
+        <v>1157.088627004002</v>
       </c>
       <c r="Y10" t="n">
-        <v>862.0164446829692</v>
+        <v>936.2960478604717</v>
       </c>
     </row>
     <row r="11">
@@ -5018,7 +5018,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
         <v>1590.547811004713</v>
@@ -5033,58 +5033,58 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192602</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K11" t="n">
-        <v>852.852361107581</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="12">
@@ -5103,7 +5103,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,28 +5112,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="K12" t="n">
-        <v>119.2902967703784</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="L12" t="n">
-        <v>119.2902967703784</v>
+        <v>119.290296770379</v>
       </c>
       <c r="M12" t="n">
-        <v>716.6687843969303</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N12" t="n">
-        <v>1344.266747951537</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190824</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P12" t="n">
         <v>2319.799627685893</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>801.6605733532789</v>
+        <v>849.3843576263199</v>
       </c>
       <c r="C13" t="n">
-        <v>632.724390425372</v>
+        <v>680.448174698413</v>
       </c>
       <c r="D13" t="n">
-        <v>632.724390425372</v>
+        <v>530.3315352860773</v>
       </c>
       <c r="E13" t="n">
-        <v>484.8112968429789</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429789</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578588</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000569</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487568</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510509</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854707</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.70136564882</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W13" t="n">
-        <v>1432.091168225066</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X13" t="n">
-        <v>1204.101617327049</v>
+        <v>1166.195182806534</v>
       </c>
       <c r="Y13" t="n">
-        <v>983.3090381835186</v>
+        <v>1031.032822456564</v>
       </c>
     </row>
     <row r="14">
@@ -5258,7 +5258,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
         <v>1204.759558406469</v>
@@ -5273,28 +5273,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
         <v>4562.265728852255</v>
@@ -5355,22 +5355,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>923.0670414349513</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>1520.445529061503</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N15" t="n">
-        <v>2148.04349261611</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O15" t="n">
-        <v>2148.04349261611</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
         <v>2553.061288060775</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>695.5020655703114</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C16" t="n">
-        <v>695.5020655703114</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="D16" t="n">
-        <v>695.5020655703114</v>
+        <v>430.7826650753331</v>
       </c>
       <c r="E16" t="n">
-        <v>547.5889719879166</v>
+        <v>282.8695714929399</v>
       </c>
       <c r="F16" t="n">
-        <v>400.6990244900062</v>
+        <v>135.9796239950296</v>
       </c>
       <c r="G16" t="n">
-        <v>233.5029252048861</v>
+        <v>135.9796239950296</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000582</v>
+        <v>135.9796239950296</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510509</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854707</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.70136564882</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611859</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138415</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703114</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="17">
@@ -5504,16 +5504,16 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K17" t="n">
         <v>852.8523611075807</v>
@@ -5592,28 +5592,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>93.81666304797187</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>691.1951506745238</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N18" t="n">
-        <v>1318.79311422913</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O18" t="n">
-        <v>1870.702844468417</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2294.325993963485</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
-        <v>2527.587654338368</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,22 +5647,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>874.8686257536381</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C19" t="n">
-        <v>705.9324428257312</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="D19" t="n">
-        <v>555.8158034133954</v>
+        <v>430.7826650753331</v>
       </c>
       <c r="E19" t="n">
-        <v>407.9027098310023</v>
+        <v>282.8695714929399</v>
       </c>
       <c r="F19" t="n">
-        <v>261.0127623330919</v>
+        <v>135.9796239950296</v>
       </c>
       <c r="G19" t="n">
-        <v>93.81666304797187</v>
+        <v>135.9796239950296</v>
       </c>
       <c r="H19" t="n">
         <v>93.81666304797187</v>
@@ -5698,25 +5698,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S19" t="n">
-        <v>2446.96308358026</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T19" t="n">
-        <v>2227.361618603201</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U19" t="n">
-        <v>1938.286391947399</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V19" t="n">
-        <v>1683.601903741512</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W19" t="n">
-        <v>1394.184733704551</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X19" t="n">
-        <v>1166.195182806534</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y19" t="n">
-        <v>945.402603663004</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="20">
@@ -5738,31 +5738,31 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H20" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
@@ -5838,13 +5838,13 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>1670.092171589158</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="N21" t="n">
-        <v>2297.690135143765</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O21" t="n">
-        <v>2553.061288060775</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P21" t="n">
         <v>2553.061288060775</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>741.8431516380886</v>
+        <v>558.0193492433381</v>
       </c>
       <c r="C22" t="n">
-        <v>572.9069687101817</v>
+        <v>558.0193492433381</v>
       </c>
       <c r="D22" t="n">
-        <v>572.9069687101817</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E22" t="n">
-        <v>424.9938751277886</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F22" t="n">
-        <v>343.0994656851783</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5941,19 +5941,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>1732.551602357973</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648819</v>
+        <v>1477.867114152086</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611858</v>
+        <v>1188.449944115125</v>
       </c>
       <c r="X22" t="n">
-        <v>1144.284195611858</v>
+        <v>960.4603932171079</v>
       </c>
       <c r="Y22" t="n">
-        <v>923.4916164683283</v>
+        <v>739.6678140735778</v>
       </c>
     </row>
     <row r="23">
@@ -5984,22 +5984,22 @@
         <v>93.8166630479716</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111703</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075796</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014777</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355935</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
@@ -6008,7 +6008,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
@@ -6066,28 +6066,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L24" t="n">
-        <v>93.81666304797187</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M24" t="n">
-        <v>680.0291294438176</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N24" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O24" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,16 +6121,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400712</v>
+        <v>870.3164745246296</v>
       </c>
       <c r="C25" t="n">
-        <v>513.8536007400712</v>
+        <v>701.3802915967227</v>
       </c>
       <c r="D25" t="n">
-        <v>484.8112968429803</v>
+        <v>551.263652184387</v>
       </c>
       <c r="E25" t="n">
-        <v>484.8112968429803</v>
+        <v>551.263652184387</v>
       </c>
       <c r="F25" t="n">
         <v>484.8112968429803</v>
@@ -6169,28 +6169,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611858</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138411</v>
+        <v>1272.757518498399</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703109</v>
+        <v>1051.964939354869</v>
       </c>
     </row>
     <row r="26">
@@ -6206,40 +6206,40 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J26" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6260,13 +6260,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6306,19 +6306,19 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>738.7889117913853</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>1336.167399417937</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N27" t="n">
-        <v>1963.765362972544</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O27" t="n">
-        <v>2515.675093211831</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
         <v>2553.061288060775</v>
@@ -6358,22 +6358,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>707.672526468518</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C28" t="n">
-        <v>538.7363435406111</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D28" t="n">
-        <v>388.6197041282753</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E28" t="n">
-        <v>240.7066105458822</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F28" t="n">
-        <v>93.81666304797187</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G28" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
         <v>93.81666304797187</v>
@@ -6382,52 +6382,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>174.052681478294</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038326</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797726</v>
       </c>
       <c r="M28" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910807</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570816</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279801</v>
       </c>
       <c r="P28" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853359</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580259</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832661</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487565</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510506</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854704</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W28" t="n">
-        <v>1338.103121340305</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X28" t="n">
-        <v>1110.113570442288</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y28" t="n">
-        <v>889.3209912987577</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="29">
@@ -6449,31 +6449,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J29" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400712</v>
+        <v>800.5007694647277</v>
       </c>
       <c r="C31" t="n">
-        <v>402.7245934908939</v>
+        <v>631.5645865368208</v>
       </c>
       <c r="D31" t="n">
-        <v>402.7245934908939</v>
+        <v>481.447947124485</v>
       </c>
       <c r="E31" t="n">
-        <v>402.7245934908939</v>
+        <v>333.5348535420919</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908939</v>
+        <v>333.5348535420919</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6643,28 +6643,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510508</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854706</v>
+        <v>1975.033022579363</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.701365648819</v>
+        <v>1720.348534373476</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611858</v>
+        <v>1430.931364336515</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138411</v>
+        <v>1202.941813438498</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703109</v>
+        <v>982.1492342949674</v>
       </c>
     </row>
     <row r="32">
@@ -6701,19 +6701,19 @@
         <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6777,25 +6777,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>119.290296770379</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>716.6687843969308</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N33" t="n">
-        <v>1344.266747951538</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O33" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
         <v>2553.061288060775</v>
@@ -6832,19 +6832,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>779.6143379232838</v>
+        <v>784.5811134804959</v>
       </c>
       <c r="C34" t="n">
-        <v>779.6143379232838</v>
+        <v>615.644930552589</v>
       </c>
       <c r="D34" t="n">
-        <v>779.6143379232838</v>
+        <v>465.5282911402533</v>
       </c>
       <c r="E34" t="n">
-        <v>631.7012443408906</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="F34" t="n">
-        <v>484.8112968429803</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G34" t="n">
         <v>317.6151975578602</v>
@@ -6883,25 +6883,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487567</v>
+        <v>2239.800507329975</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510508</v>
+        <v>2020.199042352916</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854706</v>
+        <v>1731.123815697113</v>
       </c>
       <c r="V34" t="n">
-        <v>1478.669523688502</v>
+        <v>1476.439327491226</v>
       </c>
       <c r="W34" t="n">
-        <v>1189.252353651541</v>
+        <v>1187.022157454266</v>
       </c>
       <c r="X34" t="n">
-        <v>961.2628027535235</v>
+        <v>1187.022157454266</v>
       </c>
       <c r="Y34" t="n">
-        <v>961.2628027535235</v>
+        <v>966.2295783107356</v>
       </c>
     </row>
     <row r="35">
@@ -6923,16 +6923,16 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
         <v>378.1925803111715</v>
@@ -7014,25 +7014,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L36" t="n">
-        <v>119.290296770379</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M36" t="n">
-        <v>716.6687843969308</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N36" t="n">
-        <v>1344.266747951538</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O36" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
         <v>2553.061288060775</v>
@@ -7069,22 +7069,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>576.8388927589092</v>
+        <v>808.8888553856862</v>
       </c>
       <c r="C37" t="n">
-        <v>407.9027098310023</v>
+        <v>639.9526724577793</v>
       </c>
       <c r="D37" t="n">
-        <v>407.9027098310023</v>
+        <v>489.8360330454435</v>
       </c>
       <c r="E37" t="n">
-        <v>407.9027098310023</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F37" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G37" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
         <v>93.81666304797187</v>
@@ -7117,28 +7117,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T37" t="n">
-        <v>2040.446372529346</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U37" t="n">
-        <v>1751.371145873544</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V37" t="n">
-        <v>1496.686657667657</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W37" t="n">
-        <v>1207.269487630696</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X37" t="n">
-        <v>979.2799367326791</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="Y37" t="n">
-        <v>758.4873575891489</v>
+        <v>990.5373202159259</v>
       </c>
     </row>
     <row r="38">
@@ -7148,46 +7148,46 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I38" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7205,19 +7205,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="39">
@@ -7248,22 +7248,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
         <v>2553.061288060775</v>
@@ -7306,25 +7306,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>571.6607764188008</v>
+        <v>916.3099000622261</v>
       </c>
       <c r="C40" t="n">
-        <v>402.7245934908939</v>
+        <v>747.3737171343192</v>
       </c>
       <c r="D40" t="n">
-        <v>402.7245934908939</v>
+        <v>597.2570777219835</v>
       </c>
       <c r="E40" t="n">
-        <v>402.7245934908939</v>
+        <v>597.2570777219835</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
@@ -7357,25 +7357,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2254.869721166297</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T40" t="n">
-        <v>2035.268256189238</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="U40" t="n">
-        <v>1746.193029533436</v>
+        <v>2090.842153176861</v>
       </c>
       <c r="V40" t="n">
-        <v>1491.508541327549</v>
+        <v>1836.157664970974</v>
       </c>
       <c r="W40" t="n">
-        <v>1202.091371290588</v>
+        <v>1546.740494934013</v>
       </c>
       <c r="X40" t="n">
-        <v>974.1018203925706</v>
+        <v>1318.750944035996</v>
       </c>
       <c r="Y40" t="n">
-        <v>753.3092412490405</v>
+        <v>1097.958364892466</v>
       </c>
     </row>
     <row r="41">
@@ -7397,10 +7397,10 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
@@ -7485,22 +7485,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
         <v>2553.061288060775</v>
@@ -7543,19 +7543,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8536007400712</v>
+        <v>554.5813165460164</v>
       </c>
       <c r="C43" t="n">
-        <v>344.9174178121643</v>
+        <v>385.6451336181095</v>
       </c>
       <c r="D43" t="n">
-        <v>344.9174178121643</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="E43" t="n">
-        <v>344.9174178121643</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F43" t="n">
-        <v>344.9174178121643</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G43" t="n">
         <v>235.5284942057738</v>
@@ -7591,28 +7591,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832663</v>
+        <v>2420.645095638608</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487567</v>
+        <v>2237.790261293512</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510508</v>
+        <v>2018.188796316454</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854706</v>
+        <v>1729.113569660651</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.701365648819</v>
+        <v>1474.429081454764</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611858</v>
+        <v>1185.011911417804</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138411</v>
+        <v>957.0223605197863</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703109</v>
+        <v>736.2297813762561</v>
       </c>
     </row>
     <row r="44">
@@ -7643,13 +7643,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7661,7 +7661,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7722,22 +7722,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>280.8495004245706</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>776.1751066403293</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
         <v>2553.061288060775</v>
@@ -7780,10 +7780,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>571.6607764188008</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C46" t="n">
-        <v>402.7245934908939</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D46" t="n">
         <v>402.7245934908939</v>
@@ -7828,28 +7828,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T46" t="n">
-        <v>2035.268256189238</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U46" t="n">
-        <v>1746.193029533436</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V46" t="n">
-        <v>1491.508541327549</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W46" t="n">
-        <v>1202.091371290588</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X46" t="n">
-        <v>974.1018203925706</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y46" t="n">
-        <v>753.3092412490405</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
   </sheetData>
@@ -22547,7 +22547,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -22559,10 +22559,10 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>329.0241458276274</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -22598,10 +22598,10 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>21.31615663874635</v>
       </c>
       <c r="U2" t="n">
-        <v>242.353156064805</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -22610,7 +22610,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -23419,22 +23419,22 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,10 +23461,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23476,13 +23476,13 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>284.928902887075</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>84.77391660562387</v>
       </c>
     </row>
     <row r="14">
@@ -23501,7 +23501,7 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>3.979039320256561e-13</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -23650,13 +23650,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -23665,13 +23665,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>83.27114962944424</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>39.5245049809784</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23887,10 +23887,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>110.003342051665</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -23902,10 +23902,10 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>98.55338150863676</v>
       </c>
       <c r="I19" t="n">
         <v>81.26583631856553</v>
@@ -23938,7 +23938,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016461</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23978,13 +23978,13 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" t="n">
         <v>5.115907697472721e-13</v>
-      </c>
-      <c r="G20" t="n">
-        <v>0</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -24127,16 +24127,16 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>64.34558267474709</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -24145,7 +24145,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24181,7 +24181,7 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>43.72409101823402</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24190,7 +24190,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24364,16 +24364,16 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>119.8635921600923</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>79.63321623493862</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -24409,7 +24409,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24424,7 +24424,7 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24604,19 +24604,19 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856553</v>
@@ -24658,10 +24658,10 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>57.22910392194407</v>
       </c>
       <c r="W28" t="n">
-        <v>191.8807364711621</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24838,25 +24838,25 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>57.22910392194228</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>9.468966021655547</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,13 +24883,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -25075,19 +25075,19 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -25123,7 +25123,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>42.31058222398323</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25132,16 +25132,16 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>44.51847645928561</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25315,19 +25315,19 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>60.19363748756504</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>81.26583631856553</v>
@@ -25357,13 +25357,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>62.35543909864958</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25375,7 +25375,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25552,13 +25552,13 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>34.09972495271806</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -25567,7 +25567,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25597,10 +25597,10 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>57.229103921942</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25789,7 +25789,7 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -25798,7 +25798,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>57.22910392194223</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -25831,7 +25831,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>40.32043864788569</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -26026,7 +26026,7 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>139.469330230033</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -26068,13 +26068,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>57.22910392194237</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>982628.6180835223</v>
+        <v>982628.6180835227</v>
       </c>
     </row>
     <row r="3">
@@ -26311,7 +26311,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>335917.9865019032</v>
+        <v>335917.9865019033</v>
       </c>
       <c r="C2" t="n">
         <v>369468.7964389278</v>
@@ -26323,13 +26323,13 @@
         <v>363215.9698605028</v>
       </c>
       <c r="F2" t="n">
-        <v>363215.9698605027</v>
+        <v>363215.9698605026</v>
       </c>
       <c r="G2" t="n">
-        <v>363215.9698605027</v>
+        <v>363215.9698605026</v>
       </c>
       <c r="H2" t="n">
-        <v>363215.9698605026</v>
+        <v>363215.9698605025</v>
       </c>
       <c r="I2" t="n">
         <v>363215.9698605026</v>
@@ -26338,16 +26338,16 @@
         <v>363215.9698605028</v>
       </c>
       <c r="K2" t="n">
+        <v>363215.9698605026</v>
+      </c>
+      <c r="L2" t="n">
+        <v>363215.9698605026</v>
+      </c>
+      <c r="M2" t="n">
         <v>363215.9698605029</v>
       </c>
-      <c r="L2" t="n">
-        <v>363215.9698605028</v>
-      </c>
-      <c r="M2" t="n">
-        <v>363215.9698605026</v>
-      </c>
       <c r="N2" t="n">
-        <v>363215.9698605028</v>
+        <v>363215.9698605027</v>
       </c>
       <c r="O2" t="n">
         <v>363215.9698605028</v>
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073554</v>
+        <v>325412.4618073551</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26396,7 +26396,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551187</v>
+        <v>85055.02793551178</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,13 +26415,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>49629.01520551657</v>
+        <v>49629.01520551668</v>
       </c>
       <c r="C4" t="n">
-        <v>92183.89891818176</v>
+        <v>92183.89891818169</v>
       </c>
       <c r="D4" t="n">
-        <v>92183.89891818172</v>
+        <v>92183.89891818173</v>
       </c>
       <c r="E4" t="n">
         <v>12996.86414683044</v>
@@ -26442,13 +26442,13 @@
         <v>12996.86414683044</v>
       </c>
       <c r="K4" t="n">
-        <v>12996.86414683044</v>
+        <v>12996.86414683045</v>
       </c>
       <c r="L4" t="n">
         <v>12996.86414683045</v>
       </c>
       <c r="M4" t="n">
-        <v>12996.86414683046</v>
+        <v>12996.86414683044</v>
       </c>
       <c r="N4" t="n">
         <v>12996.86414683044</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1150389.714992599</v>
+        <v>-1150576.108381138</v>
       </c>
       <c r="C6" t="n">
+        <v>169350.9569593528</v>
+      </c>
+      <c r="D6" t="n">
         <v>169350.9569593527</v>
       </c>
-      <c r="D6" t="n">
-        <v>169350.9569593526</v>
-      </c>
       <c r="E6" t="n">
-        <v>-76315.88591759016</v>
+        <v>-76350.62384302559</v>
       </c>
       <c r="F6" t="n">
-        <v>249096.5758897651</v>
+        <v>249061.8379643293</v>
       </c>
       <c r="G6" t="n">
-        <v>249096.5758897653</v>
+        <v>249061.8379643293</v>
       </c>
       <c r="H6" t="n">
-        <v>249096.5758897651</v>
+        <v>249061.8379643292</v>
       </c>
       <c r="I6" t="n">
-        <v>249096.575889765</v>
+        <v>249061.8379643293</v>
       </c>
       <c r="J6" t="n">
-        <v>31565.37349248775</v>
+        <v>31530.63556705206</v>
       </c>
       <c r="K6" t="n">
-        <v>249096.5758897653</v>
+        <v>249061.8379643293</v>
       </c>
       <c r="L6" t="n">
-        <v>249096.5758897652</v>
+        <v>249061.8379643293</v>
       </c>
       <c r="M6" t="n">
-        <v>164041.5479542532</v>
+        <v>164006.8100288178</v>
       </c>
       <c r="N6" t="n">
-        <v>249096.5758897652</v>
+        <v>249061.8379643294</v>
       </c>
       <c r="O6" t="n">
-        <v>249096.5758897652</v>
+        <v>249061.8379643295</v>
       </c>
       <c r="P6" t="n">
-        <v>249096.5758897652</v>
+        <v>249061.8379643295</v>
       </c>
     </row>
   </sheetData>
@@ -26790,13 +26790,13 @@
         <v>831.4014554022926</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
         <v>1172.708288099648</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483757</v>
+        <v>278.1987997483754</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973558</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973558</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973558</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,13 +27376,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>107.2399275319507</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -27427,13 +27427,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>8.642015894096971</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -27549,13 +27549,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>80.23790880443549</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27594,7 +27594,7 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>69.99732345939708</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -27616,25 +27616,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27667,13 +27667,13 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>226.4291713029156</v>
+        <v>33.73100954709895</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -27774,13 +27774,13 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>20.94310772443657</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>82.67315785011765</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -27792,7 +27792,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27828,7 +27828,7 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -27837,10 +27837,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27850,19 +27850,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>314.3779992052494</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>12.76596266205354</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -27901,16 +27901,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -27919,7 +27919,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28020,16 +28020,16 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>22.1495801555002</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28065,19 +28065,19 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>185.7258382150428</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28087,7 +28087,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -28245,7 +28245,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>-1.82074706608963e-12</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -28266,7 +28266,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>1.319714707885093e-12</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -28330,7 +28330,7 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -28564,7 +28564,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -29290,7 +29290,7 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -29509,7 +29509,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -29989,7 +29989,7 @@
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -31750,7 +31750,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31762,31 +31762,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31829,10 +31829,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
@@ -31841,37 +31841,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>163.572382128305</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>164.2853229338208</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,25 +31911,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31938,19 +31938,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,7 +31987,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +31999,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,34 +32066,34 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862122</v>
+        <v>446.0127311990643</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>543.0832917018706</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
@@ -32102,13 +32102,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32148,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32175,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32312,16 +32312,16 @@
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>446.0127311990643</v>
       </c>
       <c r="N18" t="n">
         <v>765.2790490071785</v>
@@ -32330,13 +32330,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>171.4104471179106</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32558,16 +32558,16 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>652.0478969157701</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
@@ -32786,31 +32786,31 @@
         <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -33026,7 +33026,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
         <v>638.8832749473072</v>
@@ -33038,10 +33038,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P27" t="n">
-        <v>171.7382405950817</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
@@ -33184,7 +33184,7 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817581</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
         <v>867.846407116256</v>
@@ -33497,13 +33497,13 @@
         <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>164.2853229338207</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
         <v>745.5466476862121</v>
@@ -33512,13 +33512,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>145.679503963964</v>
@@ -33661,7 +33661,7 @@
         <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162566</v>
       </c>
       <c r="M35" t="n">
         <v>965.6463440175675</v>
@@ -33734,13 +33734,13 @@
         <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>164.2853229338207</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
         <v>745.5466476862121</v>
@@ -33749,13 +33749,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
@@ -33889,7 +33889,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
@@ -33968,7 +33968,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
@@ -33986,7 +33986,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -34205,7 +34205,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
@@ -34223,7 +34223,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
@@ -34363,7 +34363,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
@@ -34390,7 +34390,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S44" t="n">
         <v>125.31755462929</v>
@@ -34442,13 +34442,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>326.7634969305194</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
         <v>638.8832749473072</v>
@@ -34460,7 +34460,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35489,25 +35489,25 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>25.73094315394598</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>25.73094315394658</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,22 +35565,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,25 +35723,25 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>303.8786972770459</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>409.1088842875403</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35802,22 +35802,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35960,16 +35960,16 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>303.8786972770459</v>
       </c>
       <c r="N18" t="n">
         <v>633.9373369238452</v>
@@ -35978,13 +35978,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>25.73094315394662</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36206,16 +36206,16 @@
         <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>509.9138629937518</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36434,31 +36434,31 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36674,7 +36674,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
         <v>500.328895167433</v>
@@ -36686,10 +36686,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P27" t="n">
-        <v>37.7638331807514</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36750,7 +36750,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295167</v>
       </c>
       <c r="K28" t="n">
         <v>264.3325884096349</v>
@@ -36832,7 +36832,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367776</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
         <v>632.0799921462688</v>
@@ -37145,13 +37145,13 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>25.73094315394657</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
@@ -37160,13 +37160,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37309,7 +37309,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462693</v>
       </c>
       <c r="M35" t="n">
         <v>735.3001107902948</v>
@@ -37382,13 +37382,13 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>25.73094315394657</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
@@ -37397,13 +37397,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37537,7 +37537,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
@@ -37616,7 +37616,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37634,7 +37634,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37853,7 +37853,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37871,7 +37871,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -38011,7 +38011,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
@@ -38038,7 +38038,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,13 +38090,13 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>188.9220579561604</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
         <v>500.328895167433</v>
@@ -38108,7 +38108,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
